--- a/code/BestPositions.xlsx
+++ b/code/BestPositions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive - SOCIEDADE DE ENSINO SUPERIOR ESTACIO DE SA\GitHub Desktop\14Bus-Parallel-Optimization\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B5CC58-17F9-4BB1-AE03-425BD0C3885B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCCAA41-0A30-43D4-85BA-98498AB07F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="2655" windowWidth="12930" windowHeight="11385" xr2:uid="{CE218291-B99E-4543-9F21-14ABDA9A2D96}"/>
+    <workbookView xWindow="19080" yWindow="2655" windowWidth="12930" windowHeight="11385" xr2:uid="{2E066A1F-E8F8-4643-8175-EDAF353EBFAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D358D7C-1CE6-4885-915F-22AF1D07DAB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CDC208-BC2E-4847-82A8-38656B5357E2}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -390,72 +390,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>7.0829669207159727</v>
+        <v>6.9774387942869378</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7.776960228621113</v>
+        <v>6.004243779615428</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10.115148041579594</v>
+        <v>7.6322864032111246</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7.7729877750081338</v>
+        <v>6.7936430562505983</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10.388292251986901</v>
+        <v>10.211648421334095</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8.9832046299070392</v>
+        <v>10.036886602677358</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7.654311680958088</v>
+        <v>5.192138874353029</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9.8646391878870343</v>
+        <v>9.0180021563608577</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8.7110694899502104</v>
+        <v>6.4006940188468775</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9.5468368538938897</v>
+        <v>7.2590030465059279</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10.091095410358552</v>
+        <v>7.9571657832797493</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9.2480122449169535</v>
+        <v>10.161989665999648</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>8.6842107036700895</v>
+        <v>7.2305734475742787</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7.3721007077822147</v>
+        <v>10.387100258666949</v>
       </c>
     </row>
   </sheetData>
